--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\VSCode\Automações\Gerador_de_OP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54930158-4336-4E80-9653-E5517BD0220A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6216CB69-C841-40D7-AEC8-8AB531ECC7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16284" yWindow="-7272" windowWidth="23256" windowHeight="12576" xr2:uid="{1136057B-7CC0-49D5-B273-5643C05E8679}"/>
   </bookViews>
@@ -33,6 +33,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Questor</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,12 +413,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CE3405-476F-4DD5-9A08-2578AC6388B7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>16063</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>17203</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>19802</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Pedidos.xlsx
+++ b/Pedidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\VSCode\Automações\Gerador_de_OP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6216CB69-C841-40D7-AEC8-8AB531ECC7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEE9DCA-BB27-41E9-9AED-CDB5AFFE5042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16284" yWindow="-7272" windowWidth="23256" windowHeight="12576" xr2:uid="{1136057B-7CC0-49D5-B273-5643C05E8679}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
